--- a/results/I3_N5_M2_T45_C150_DepCentral_s3_P5_res.xlsx
+++ b/results/I3_N5_M2_T45_C150_DepCentral_s3_P5_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>304.0820577263435</v>
+        <v>1579.42962521187</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0149998664855957</v>
+        <v>0.005000114440917969</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29.2420577263436</v>
+        <v>19.85485207586932</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.911869118464983</v>
+        <v>5.315063262079851</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.911869118464983</v>
+        <v>4.889836398081229</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>155.4499999999999</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>119.39</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,7 +598,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -609,7 +609,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -620,9 +620,20 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -667,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -678,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -689,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -700,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -711,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -722,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -733,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -780,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -791,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -802,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -824,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -846,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -896,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>22.82218000304263</v>
       </c>
     </row>
     <row r="4">
@@ -904,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>38.90813890885143</v>
+        <v>25.92773953394843</v>
       </c>
     </row>
     <row r="5">
@@ -912,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.091861091148566</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -920,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>34.13769259370486</v>
+        <v>35.79579898937524</v>
       </c>
     </row>
     <row r="7">
@@ -936,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>43.79797530693266</v>
+        <v>38.42062279298568</v>
       </c>
     </row>
     <row r="9">
@@ -944,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>36.7625163973153</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -958,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -993,7 +1004,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1007,10 +1018,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1021,10 +1032,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1035,12 +1046,166 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n">
         <v>6</v>
       </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1143,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>65.71999999999964</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8">
@@ -1154,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>59.43999999999964</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9">
@@ -1165,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>69.37499999999963</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
@@ -1176,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>64.17999999999964</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
@@ -1187,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>63.18499999999963</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12">
@@ -1198,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>166.925</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13">
@@ -1209,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>169.6300000000004</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14">
@@ -1220,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>153.68</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15">
@@ -1231,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>170.495</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16">
@@ -1242,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>166.43</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17">
@@ -1253,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>35.25999999999986</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -1264,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>27.32499999999985</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
@@ -1275,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>30.18999999999986</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
@@ -1286,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>25.3</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
@@ -1297,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>28.38999999999985</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22">
@@ -1308,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>133.0399999999999</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23">
@@ -1319,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>135.6449999999999</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24">
@@ -1330,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>150.565</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25">
@@ -1341,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>134.7699999999999</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26">
@@ -1352,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>137.7699999999999</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27">
@@ -1363,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>81.23500000000023</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28">
@@ -1374,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>72.77000000000058</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29">
@@ -1385,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>72.55</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30">
@@ -1396,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>80.62000000000022</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31">
@@ -1407,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>79.89000000000021</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32">
@@ -1418,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>166.925</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33">
@@ -1429,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>169.6300000000004</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34">
@@ -1440,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>153.68</v>
+        <v>274</v>
       </c>
     </row>
     <row r="35">
@@ -1451,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>170.495</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36">
@@ -1462,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>166.43</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37">
@@ -1473,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>133.0399999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1484,7 +1649,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>135.6449999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1495,7 +1660,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>150.565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1506,7 +1671,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>134.7699999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1517,7 +1682,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>137.7699999999999</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1564,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>16.925</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3">
@@ -1575,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>19.63</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4">
@@ -1586,7 +1751,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>3.68</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5">
@@ -1597,7 +1762,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>20.495</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6">
@@ -1608,7 +1773,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>16.43</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7">
@@ -1641,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5649999999999338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1710,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1721,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1732,7 +1897,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1743,7 +1908,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1754,7 +1919,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1765,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1776,7 +1941,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1787,7 +1952,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1798,7 +1963,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1809,7 +1974,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1820,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>10.34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1831,7 +1996,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>11.4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1842,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>12.205</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1853,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>12.875</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1864,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>12.875</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1930,7 +2095,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1941,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -1952,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -1963,7 +2128,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -1974,7 +2139,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1988,7 +2153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2073,9 +2238,108 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
